--- a/icvp/StructureDefinition-ICVPEvent.xlsx
+++ b/icvp/StructureDefinition-ICVPEvent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="115">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,13 +42,13 @@
     <t>Title</t>
   </si>
   <si>
-    <t>ICVP Event</t>
+    <t>ICVP (single)</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T07:31:05+00:00</t>
+    <t>2025-10-08T14:36:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ICVP for a single immunization event</t>
+    <t>ICVP for a single vaccincation event</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -105,7 +105,7 @@
     <t>Type</t>
   </si>
   <si>
-    <t>http://smart.who.int/icvp/StructureDefinition/ModelICVP</t>
+    <t>http://smart.who.int/icvp/StructureDefinition/ICVP</t>
   </si>
   <si>
     <t>Base Definition</t>
@@ -231,7 +231,7 @@
     <t>Constraint(s)</t>
   </si>
   <si>
-    <t>ModelICVP</t>
+    <t>ICVP</t>
   </si>
   <si>
     <t>0</t>
@@ -244,20 +244,13 @@
 </t>
   </si>
   <si>
-    <t>ICVP</t>
-  </si>
-  <si>
     <t>Data elements for the Model International Certificate of Vaccination or Prophylaxis.</t>
   </si>
   <si>
     <t>Base</t>
   </si>
   <si>
-    <t xml:space="preserve">mustHaveIssuerOrClinician:Either issuer or clinicianName must be present {vaccineDetails.issuer.exists() or vaccineDetails.clinicianName.exists()}
-</t>
-  </si>
-  <si>
-    <t>ModelICVP.name</t>
+    <t>ICVP.name</t>
   </si>
   <si>
     <t>1</t>
@@ -270,10 +263,10 @@
     <t>The full name of the client</t>
   </si>
   <si>
-    <t>ModelDVC.name</t>
-  </si>
-  <si>
-    <t>ModelICVP.dob</t>
+    <t>DVC.name</t>
+  </si>
+  <si>
+    <t>ICVP.dob</t>
   </si>
   <si>
     <t xml:space="preserve">date
@@ -283,10 +276,10 @@
     <t>Date of Birth</t>
   </si>
   <si>
-    <t>ModelDVC.dob</t>
-  </si>
-  <si>
-    <t>ModelICVP.sex</t>
+    <t>DVC.dob</t>
+  </si>
+  <si>
+    <t>ICVP.sex</t>
   </si>
   <si>
     <t xml:space="preserve">code
@@ -296,28 +289,47 @@
     <t>Sex</t>
   </si>
   <si>
-    <t>ModelDVC.sex</t>
-  </si>
-  <si>
-    <t>ModelICVP.nationality</t>
+    <t>DVC.sex</t>
+  </si>
+  <si>
+    <t>ICVP.nationality</t>
   </si>
   <si>
     <t>Nationality</t>
   </si>
   <si>
-    <t>ModelDVC.nationality</t>
-  </si>
-  <si>
-    <t>ModelICVP.nid</t>
+    <t>DVC.nationality</t>
+  </si>
+  <si>
+    <t>ICVP.nid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
   </si>
   <si>
     <t>National Identification Document</t>
   </si>
   <si>
-    <t>ModelDVC.nid</t>
-  </si>
-  <si>
-    <t>ModelICVP.guardian</t>
+    <t>DVC.nid</t>
+  </si>
+  <si>
+    <t>ICVP.ndt</t>
+  </si>
+  <si>
+    <t>National ID Document Type</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0203</t>
+  </si>
+  <si>
+    <t>DVC.ndt</t>
+  </si>
+  <si>
+    <t>ICVP.guardian</t>
   </si>
   <si>
     <t>Parent/Guardian</t>
@@ -326,10 +338,10 @@
     <t>Name of Parent or Guardian</t>
   </si>
   <si>
-    <t>ModelDVC.guardian</t>
-  </si>
-  <si>
-    <t>ModelICVP.issuer</t>
+    <t>DVC.guardian</t>
+  </si>
+  <si>
+    <t>ICVP.issuer</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Organization)
@@ -339,20 +351,20 @@
     <t>Document issuer</t>
   </si>
   <si>
-    <t>ModelDVC.issuer</t>
-  </si>
-  <si>
-    <t>ModelICVP.vaccineDetails</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://smart.who.int/icvp/StructureDefinition/ModelICVPVaccineDetails
+    <t>DVC.issuer</t>
+  </si>
+  <si>
+    <t>ICVP.vaccineDetails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://smart.who.int/icvp/StructureDefinition/ICVPVaccineDetails
 </t>
   </si>
   <si>
     <t>Vaccine Details</t>
   </si>
   <si>
-    <t>ModelDVC.vaccineDetails</t>
+    <t>DVC.vaccineDetails</t>
   </si>
 </sst>
 </file>
@@ -657,7 +669,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ10"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -666,40 +678,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="24.69140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.69140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.44921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.44921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="65.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.55078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="24.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="35.8046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="16.25" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -844,10 +856,10 @@
         <v>75</v>
       </c>
       <c r="L2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M2" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -898,7 +910,7 @@
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>73</v>
@@ -910,15 +922,15 @@
         <v>20</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -926,10 +938,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>20</v>
@@ -941,13 +953,13 @@
         <v>20</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s" s="2">
         <v>6</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -998,13 +1010,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -1015,10 +1027,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1026,10 +1038,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>20</v>
@@ -1041,13 +1053,13 @@
         <v>20</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1098,13 +1110,13 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>20</v>
@@ -1115,10 +1127,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1129,7 +1141,7 @@
         <v>73</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
@@ -1141,13 +1153,13 @@
         <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1198,13 +1210,13 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
@@ -1215,10 +1227,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1229,7 +1241,7 @@
         <v>73</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -1241,13 +1253,13 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1298,13 +1310,13 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
@@ -1315,10 +1327,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1329,7 +1341,7 @@
         <v>73</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -1341,13 +1353,13 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1398,13 +1410,13 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>20</v>
@@ -1415,10 +1427,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1429,7 +1441,7 @@
         <v>73</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>20</v>
@@ -1441,13 +1453,13 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1474,13 +1486,11 @@
         <v>20</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" t="s" s="2">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="AA8" t="s" s="2">
         <v>20</v>
@@ -1504,7 +1514,7 @@
         <v>73</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>20</v>
@@ -1529,7 +1539,7 @@
         <v>73</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>20</v>
@@ -1541,10 +1551,10 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="M9" t="s" s="2">
         <v>105</v>
@@ -1604,7 +1614,7 @@
         <v>73</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>20</v>
@@ -1626,10 +1636,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -1701,15 +1711,115 @@
         <v>110</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH11" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AI10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
+      <c r="AI11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>20</v>
       </c>
     </row>

--- a/icvp/StructureDefinition-ICVPEvent.xlsx
+++ b/icvp/StructureDefinition-ICVPEvent.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:36:54+00:00</t>
+    <t>2025-10-17T14:28:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
